--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>milleremily</t>
+          <t>vbrooks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>matthewallen</t>
+          <t>lewisanna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>karen90</t>
+          <t>bradfordkim</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vbrooks</t>
+          <t>newtonchristopher</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lewisanna</t>
+          <t>amandabaker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bradfordkim</t>
+          <t>jefferyhowe</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>newtonchristopher</t>
+          <t>tamara01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>amandabaker</t>
+          <t>stephen70</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jefferyhowe</t>
+          <t>douglas51</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tamara01</t>
+          <t>andrea61</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stephen70</t>
+          <t>rosslaura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>douglas51</t>
+          <t>brownbrent</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,8 +447,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,31 +455,11 @@
           <t>var_1_input_object</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>var_2_input_object_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>var_3_input_object_2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>andrea61</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rosslaura</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>brownbrent</t>
+          <t>bblake</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lisakelly</t>
+          <t>vscott</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>garciakevin</t>
+          <t>mkramer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fwilliams</t>
+          <t>georgesimon</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vscott</t>
+          <t>uprice</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mkramer</t>
+          <t>walkerbrandon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>georgesimon</t>
+          <t>ebuckley</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>uprice</t>
+          <t>tonya56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>walkerbrandon</t>
+          <t>kingwilliam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ebuckley</t>
+          <t>ehawkins</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tonya56</t>
+          <t>tyler61</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kingwilliam</t>
+          <t>ihorton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ehawkins</t>
+          <t>justin31</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tyler61</t>
+          <t>jakeadams</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ihorton</t>
+          <t>michaelsalazar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>justin31</t>
+          <t>elliswhitney</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jakeadams</t>
+          <t>ffigueroa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>michaelsalazar</t>
+          <t>carolynjackson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>elliswhitney</t>
+          <t>thomastran</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ffigueroa</t>
+          <t>kathyfinley</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>carolynjackson</t>
+          <t>annagreen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>thomastran</t>
+          <t>bryce01</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kathyfinley</t>
+          <t>ruthstephens</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>annagreen</t>
+          <t>kirstenperry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bryce01</t>
+          <t>fordstephanie</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ruthstephens</t>
+          <t>cherrysamantha</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kirstenperry</t>
+          <t>michaelwatson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fordstephanie</t>
+          <t>barryanderson</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cherrysamantha</t>
+          <t>brian09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>michaelwatson</t>
+          <t>vpennington</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>barryanderson</t>
+          <t>heidicox</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>brian09</t>
+          <t>speterson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vpennington</t>
+          <t>zlee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>heidicox</t>
+          <t>jaime34</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>speterson</t>
+          <t>jill42</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zlee</t>
+          <t>moorechristopher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jaime34</t>
+          <t>brownbrian</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jill42</t>
+          <t>krystal41</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>moorechristopher</t>
+          <t>montoyakevin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brownbrian</t>
+          <t>michaeltucker</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>krystal41</t>
+          <t>crystalcox</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>montoyakevin</t>
+          <t>darryl34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>michaeltucker</t>
+          <t>nbowman</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>crystalcox</t>
+          <t>lisa88</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>darryl34</t>
+          <t>bsanchez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nbowman</t>
+          <t>carriethompson</t>
         </is>
       </c>
     </row>
